--- a/美团/酒店二期提测/美团酒店城市匹配数据_.xlsx
+++ b/美团/酒店二期提测/美团酒店城市匹配数据_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22480"/>
+    <workbookView windowWidth="28000" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <t>国家编码</t>
   </si>
   <si>
-    <t>城编码</t>
-  </si>
-  <si>
-    <t>城全称</t>
-  </si>
-  <si>
-    <t>城简称</t>
+    <t>城市编码</t>
+  </si>
+  <si>
+    <t>城市全称</t>
+  </si>
+  <si>
+    <t>城市简称</t>
   </si>
   <si>
     <t>CN</t>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3384,7 +3384,7 @@
   <dimension ref="A1:D3299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
